--- a/medicine/Enfance/Le_Royaume_de_Pierre_d'Angle/Le_Royaume_de_Pierre_d'Angle.xlsx
+++ b/medicine/Enfance/Le_Royaume_de_Pierre_d'Angle/Le_Royaume_de_Pierre_d'Angle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Pierre_d%27Angle</t>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Royaume de Pierre d'Angle est une série de romans fantastique de Pascale Quiviger, auteure canadienne vivant actuellement au Royaume-Uni. Les couvertures ont été réalisées par l'illustrateur Patrick Connan[1]. 
-Originellement publiée par Bayard Canada en 2014 sous les titres e Voyage de Pierre d'Angle, Les Loups, Le Pacte et La Couronne, la série est ensuite publiée en France par les éditions Rouergue dans la collection Epik, entre avril 2019[2] et janvier 2021. Elle comprend quatre tomes, L'Art du naufrage, Les Filles de Mai, Les Adieux, et Courage. 
+Le Royaume de Pierre d'Angle est une série de romans fantastique de Pascale Quiviger, auteure canadienne vivant actuellement au Royaume-Uni. Les couvertures ont été réalisées par l'illustrateur Patrick Connan. 
+Originellement publiée par Bayard Canada en 2014 sous les titres e Voyage de Pierre d'Angle, Les Loups, Le Pacte et La Couronne, la série est ensuite publiée en France par les éditions Rouergue dans la collection Epik, entre avril 2019 et janvier 2021. Elle comprend quatre tomes, L'Art du naufrage, Les Filles de Mai, Les Adieux, et Courage. 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Pierre_d%27Angle</t>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,14 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Art du naufrage
-Après deux années à sillonner les mers avec l'équipage de l'Isabelle, le prince Thibault décide enfin de rentrer chez lui. Là-bas, sur son île natale, son père l'attend et compte sur lui pour régner sur le royaume de Pierre d'Angle après sa mort. Mais en chemin, une rencontre va bouleverser l'existence du Prince : un passager clandestin, Ema, une esclave en fuite. Ensemble, ils vont devoir faire face aux dangers qui guettent Pierre d'Angle.
-Les Filles de Mai
-Un voile sombre s'est posé sur le royaume de Pierre d'Angle et les douces années semblent déjà bien lointaines. Un hiver extrême, une épidémie, des complots et cette ombre qui ne quitte plus les yeux de la reine plongent le tout nouveau roi Thibault et l'ensemble de ses sujets dans l'inquiétude.
-Les Adieux
-La reine Ema et le roi Thibault ont sacrifié ce qu’ils avaient de plus précieux. Dévastés, ils doivent maintenant faire face à la plus grande des menaces : Jacquard. Le frère du roi est prêt à tout pour s’emparer du trône et la toile qu’il tisse autour du couple royal est un piège implacable.
-Courage
-Un nouveau jour se lève sur le royaume de Pierre d'Angle. Ema, Lysandre, Lucas et tous les habitants de l'île s'apprêtent à affronter le plus grand changement qu'ils n'aient jamais connu. Un bouleversement, aussi sanglant que brutal, mettant un terme au fonctionnement utopique du royaume. Mais tandis que certains se résignent déjà, d'autres organisent la résistance. La forêt de la Catastrophe, elle, surplombe cette tempête et s'apprête à délivrer ses ultimes secrets.
+          <t>L'Art du naufrage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après deux années à sillonner les mers avec l'équipage de l'Isabelle, le prince Thibault décide enfin de rentrer chez lui. Là-bas, sur son île natale, son père l'attend et compte sur lui pour régner sur le royaume de Pierre d'Angle après sa mort. Mais en chemin, une rencontre va bouleverser l'existence du Prince : un passager clandestin, Ema, une esclave en fuite. Ensemble, ils vont devoir faire face aux dangers qui guettent Pierre d'Angle.
 </t>
         </is>
       </c>
@@ -533,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Royaume_de_Pierre_d%27Angle</t>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,10 +559,123 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Résumés par tomes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Les Filles de Mai</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un voile sombre s'est posé sur le royaume de Pierre d'Angle et les douces années semblent déjà bien lointaines. Un hiver extrême, une épidémie, des complots et cette ombre qui ne quitte plus les yeux de la reine plongent le tout nouveau roi Thibault et l'ensemble de ses sujets dans l'inquiétude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Royaume_de_Pierre_d%27Angle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Résumés par tomes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les Adieux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reine Ema et le roi Thibault ont sacrifié ce qu’ils avaient de plus précieux. Dévastés, ils doivent maintenant faire face à la plus grande des menaces : Jacquard. Le frère du roi est prêt à tout pour s’emparer du trône et la toile qu’il tisse autour du couple royal est un piège implacable.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Royaume_de_Pierre_d%27Angle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Résumés par tomes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Courage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un nouveau jour se lève sur le royaume de Pierre d'Angle. Ema, Lysandre, Lucas et tous les habitants de l'île s'apprêtent à affronter le plus grand changement qu'ils n'aient jamais connu. Un bouleversement, aussi sanglant que brutal, mettant un terme au fonctionnement utopique du royaume. Mais tandis que certains se résignent déjà, d'autres organisent la résistance. La forêt de la Catastrophe, elle, surplombe cette tempête et s'apprête à délivrer ses ultimes secrets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Le_Royaume_de_Pierre_d%27Angle</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Thibault, fils d'Albéric et d'Eloïse, le prince héritier du royaume de Pierre d'Angle
 Ema, une esclave évadée qui s'échappe en embarquant clandestinement sur l'Isabelle pendant une escale
@@ -567,67 +691,71 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Le_Royaume_de_Pierre_d%27Angle</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Royaume_de_Pierre_d%27Angle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Pour le tome 1, L'Art du naufrage:
-Prix Millepages 2019, catégorie roman SF-fantasy[3]
-Prix Elbakin.net 2019[4]
+Prix Millepages 2019, catégorie roman SF-fantasy
+Prix Elbakin.net 2019
 Finaliste du prix des Bouquineurs en Seine 2020
-Prix Jeunes Adultes de Livr'à Vannes 2020[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Le_Royaume_de_Pierre_d%27Angle</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+Prix Jeunes Adultes de Livr'à Vannes 2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Le_Royaume_de_Pierre_d'Angle</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Le_Royaume_de_Pierre_d%27Angle</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Adaptation en bande dessinée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le premier tome a été adapté en bande dessinée, illustrée par Juliette Vaast et scénarisée par PoG, publiée aux éditions Auzou en septembre 2023[6].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le premier tome a été adapté en bande dessinée, illustrée par Juliette Vaast et scénarisée par PoG, publiée aux éditions Auzou en septembre 2023.
 </t>
         </is>
       </c>
